--- a/查重台账.xlsx
+++ b/查重台账.xlsx
@@ -403,19 +403,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
     <col width="22.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="31.44140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="5.5546875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="13.88671875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="6.5546875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -436,265 +435,5142 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>发票开具时间</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>最初查验时间</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>备注</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01507689</t>
+          <t>03680638</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>上海吉旺餐饮有限公司</t>
+          <t>李沧区关东雅居饭店</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>206</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45502.6681303588</v>
+        <v>4923</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-09-11 17:47:14</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45503.40660913195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24312000000091298176</t>
+          <t>57173355</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>上海良储餐饮管理有限公司</t>
+          <t>上海岚稷餐饮管理有限公司</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>150</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45502.67308559028</v>
+        <v>4923</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-03-21 17:24:13</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45503.40665267361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23922000000009614872</t>
+          <t>23322000000029946381</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>李沧区昊海铭源机电维修服务部</t>
+          <t>相城区阳澄湖镇临湖梧桐渔家乐饭店</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1575</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>45502.67621267361</v>
+        <v>4980</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-09-27 20:20:37</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45503.40669498843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>23922000000009614872</t>
+          <t>23322000000033864372</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>李沧区昊海铭源机电维修服务部</t>
+          <t>相城区阳澄湖镇湘逢小菜馆</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>96</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>45502.67621267361</v>
+        <v>4990</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-10-08 13:39:14</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45503.40673706018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23922000000009614872</t>
+          <t>23512000000089779120</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>李沧区昊海铭源机电维修服务部</t>
+          <t>成都附对夕餐饮管理有限公司</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45502.67621267361</v>
+        <v>5500</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-09-16 13:19:09</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45503.40678603009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>23922000000009614872</t>
+          <t>65908401</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>李沧区昊海铭源机电维修服务部</t>
+          <t>相城区阳澄湖镇湖边人家农家乐饭店</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>45502.67621267361</v>
+        <v>4900</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-10-11 11:35:18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45503.40719017361</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>23922000000009614872</t>
+          <t>24906128</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>李沧区昊海铭源机电维修服务部</t>
+          <t>滕州市杏花村张强餐馆</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>45502.67621267361</v>
+        <v>4892</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-12-14 11:41:37</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45503.40798275463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>23922000000009614872</t>
+          <t>02234858</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>李沧区昊海铭源机电维修服务部</t>
+          <t>常熟市辛庄郁金香酒家</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1750</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>45502.67621267361</v>
+        <v>4880</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-09-30 11:55:50</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45503.41364016203</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24922000000012412886</t>
+          <t>97514468</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>青岛乐湘睿餐饮管理有限公司</t>
+          <t>临沂经济技术开发区邵迪餐饮服务饭店</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>45503.38326875</v>
+        <v>4832</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-07-23 13:12:41</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45503.41487895833</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24922000000001618027</t>
+          <t>23312000000075532361</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>市北区品味居庄稼饭店</t>
+          <t>上海湘名餐饮管理有限公司</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4822</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>45503.38335684028</v>
+        <v>3900</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-09-11 16:13:56</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45503.41549396991</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24512000000027107789</t>
+          <t>75798108</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>双流公兴香缇私房菜馆</t>
+          <t>临沂经济技术开发区聚源阁餐饮服务部</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>152</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>45503.38343035879</v>
+        <v>4823</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-07-15 13:41:40</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45503.41607518519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>63348604</t>
+          <t>46871892</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>上海丰收日餐饮管理有限公司</t>
+          <t>上海旬味餐饮有限公司</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>418</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>45503.38352006944</v>
+        <v>4871</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-02-01 21:39:20</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45503.41625395833</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>23922000000006143379</t>
+          <t>23312000000093257982</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>青岛禧合礼宴酒店服务有限公司</t>
+          <t>好骨气（上海）餐饮管理有限公司</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2612</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>45503.38415239583</v>
+        <v>2380</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-10-07 12:36:45</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45503.41685460648</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>23922000000015516592</t>
+          <t>03680649</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>崂山区辣员记麻辣香锅店</t>
+          <t>李沧区关东雅居饭店</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>54</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>45503.38421733966</v>
+        <v>4822</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:05:03</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45503.41849226852</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>24422000000067342731</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>武汉念小时候餐饮服务有限公司</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4822</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-06-15 11:29:54</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45503.41903114584</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>05329397</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>历城区蒲洪菜馆</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4821</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-09-12 12:35:16</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45503.42018559028</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>23322000000002479589</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>新吴区花田错饭店</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4532</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-07-14 11:56:20</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45503.42097336805</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>05329393</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>历城区蒲洪菜馆</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4789</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-09-11 14:55:38</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45503.42143693287</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>23922000000019429958</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4783</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-09-01 17:55:19</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45503.42213761574</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>23322000000093278997</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>新吴区花田错饭店</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4761</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-12-08 20:20:17</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45503.4226633912</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>23922000000034789019</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>市北区品味居庄稼饭店</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4753</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-12-12 12:23:08</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45503.42315255787</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>24322000000003925747</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>新吴区花田错饭店</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4751</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2024-01-04 17:19:23</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45503.42381501157</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>27869808</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>临沂经济技术开发区邵迪餐饮服务饭店</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4721</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2024-01-02 19:34:44</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45503.42494107639</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>05884695</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>历城区蒲洪菜馆</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4711</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-12-13 14:09:19</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45503.42559353009</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03100756</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>李沧区强强柒捌玖小酒楼</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4671</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-06-03 19:06:42</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45503.42600840278</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>27639700</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>临沂经济技术开发区邵迪餐饮服务饭店</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4671</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-09-20 12:56:45</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45503.42647591436</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>23922000000034504410</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4632</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-12-10 23:38:40</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45503.42769405092</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>23922000000034594197</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>李沧区关东雅居饭店</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4622</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-12-11 12:13:38</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45503.42820050926</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>54716920</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>上海市宝山区好享来餐饮店</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4605.6</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-03-11 11:26:43</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45503.4287657176</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>23922000000035631542</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>李沧区厚德人家酒店</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4603</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-12-16 16:13:59</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45503.42937759259</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>24578658</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>上海证大喜玛拉雅有限公司</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>4584</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-04-26 19:57:36</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45503.42988392361</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>66563749</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>滕州市杏花村张强餐馆</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4571</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-06-19 18:53:53</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45503.43028920139</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>39199645</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>青岛清悦浅深休闲酒店有限公司</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>4565</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-04-05 17:36:33</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45503.43080018518</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>66822757</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>滕州市杏花村张强餐馆</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4563</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-08-24 13:04:51</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45503.43125716435</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>23322000000094735246</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>新吴区晴秋小茶餐厅</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4531</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-12-11 12:12:38</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45503.43561957176</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>39199728</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>青岛清悦浅深休闲酒店有限公司</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>4528</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-04-23 11:14:53</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45503.43650758102</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>35677557</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>泰州市海陵区玉瑾美食园</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>4516</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-06-24 10:20:57</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45503.43695818287</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>23922000000034632586</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>4516</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-12-11 14:20:26</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45503.43757665509</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>75818903</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>临沂经济技术开发区聚源阁餐饮服务部</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4513</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-09-20 14:39:53</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45503.43802589121</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>00820090</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>李沧区六七八九餐饮店</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>4311</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-12-14 20:41:43</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45503.43845804398</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>93200846</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>无锡汉爵投资有限公司</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>4475</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-03-01 09:42:15</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45503.43892133102</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>27639699</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>临沂经济技术开发区邵迪餐饮服务饭店</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4432</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-09-20 12:55:32</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45503.43928644676</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>23922000000025385721</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4364</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-10-15 17:12:13</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45503.44061547454</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>23922000000019631958</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>4359</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-09-04 13:55:47</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45503.44106087963</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>02861072</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>李沧区关东雅居饭店</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4358</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-05-25 15:57:16</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45503.44145013889</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>24132000000029496625</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>裕华区金黄酒店</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4356</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2024-03-18 11:23:26</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45503.44202288194</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>65900294</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>相城区阳澄湖镇荣生蒸菜馆</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>4280</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-10-08 18:21:35</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45503.44261681713</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>23922000000035553239</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>4262</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-12-15 17:29:47</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45503.44310290509</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>24922000000028830833</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>市北区品味居庄稼饭店</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>4215</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2024-06-07 18:01:15</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45503.44348986111</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>23322000000108498831</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>新吴区邵开振餐饮店</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4211</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-12-22 12:19:06</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45503.44408068287</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>23922000000034670327</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>李沧区厚德人家酒店</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4209</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-12-11 15:26:09</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45503.44460405093</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>59443056</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>上海市宝山区好享来餐饮店</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4201.6</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-04-17 20:57:32</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45503.44512280093</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>24132000000029429007</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>裕华区金黄酒店</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>4179</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2024-03-18 11:27:39</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45503.44569012732</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>23922000000019512273</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4166</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-09-02 22:35:47</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45503.44616493055</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>24922000000008606974</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>4165</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2024-02-28 13:57:15</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45503.44676722222</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>23922000000010033659</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>李沧区厚德人家酒店</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4153</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-06-19 21:21:09</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45503.44718585648</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01692454</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>历城区蒲洪菜馆</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4132</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-05-31 09:25:41</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45503.44761482639</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>24362000000007732045</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>南昌经济技术开发区梅仙潭山庄</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4125</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2024-01-30 09:32:22</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45503.44812078703</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>23312000000117469639</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>上海新龙雅舍餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>4123</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-11-01 14:20:32</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45503.44880081018</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>23922000000025570170</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>4108</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-10-16 20:12:06</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45503.44929822916</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>90139951</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>利满美餐饮（上海）有限公司</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>4053.1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-02-06 08:08:38</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45503.44980822917</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>23922000000022031378</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>胶州市辣五味虾鱼食府</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>4008</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-09-21 14:21:32</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45503.45039396991</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>59947520</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>山东老李头餐饮管理有限责任公司王舍人店</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-01-06 11:23:57</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45503.45077774306</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>24372000000090279738</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>德州经济技术开发区赵哥烧烤店</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>3995</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2024-06-08 18:09:59</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45503.45129295139</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>91756124</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>滨湖区荷塘叶色大酒店</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>3988</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-02-23 18:46:58</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45503.45170730324</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>23312000000181853031</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>上海静安杨同兴餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>3982</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-12-30 18:55:55</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45503.45220854167</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>24312000000079055895</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>上海市浦东新区川沙新镇佳欣小吃店</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>3980</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2024-03-22 22:26:49</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45503.45267697917</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>24412000000092930015</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>郑州市金水区鑫滇园餐饮服务店（个体工商户）</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>3980</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2024-06-12 21:23:36</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45503.45317126157</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>23922000000035365688</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>李沧区老河边菜馆</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>3967</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-12-14 20:38:35</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45503.45441930556</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>24372000000088963906</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>山东巷北烧烤火锅有限公司</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3960</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2024-06-06 19:29:22</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45503.45496163194</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>24922000000028228176</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>李沧区关东雅居饭店</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>3958</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2024-06-05 17:40:43</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45503.4557477662</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>66822755</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>滕州市杏花村张强餐馆</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>4831</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-08-23 12:20:32</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45503.45753203703</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>24312000000013749337</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>上海静安杨同兴餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>3890</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2024-01-14 18:59:56</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45503.45846532407</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>24312000000166559403</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>宣梅餐饮管理（上海）有限公司</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>3880</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2024-06-07 20:05:35</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45503.45921525463</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>23922000000019545856</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>3875</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-09-03 22:47:14</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45503.45978038194</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>23312000000061380642</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>上海正荣云上餐饮服务有限公司</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>3719</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-08-22 14:35:57</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45503.46026361111</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>24922000000030941934</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>崂山区渔厂点心经营部</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>3855</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2024-06-18 16:13:09</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45503.46088984954</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>24372000000066758642</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>滕州市杏花村张强餐馆</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>3823</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2024-05-13 18:10:42</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45503.46239723379</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>24332000000150448483</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>丽水市莲都区翁坛福饭店</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>3800</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2024-05-22 19:34:47</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45503.46334737269</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>24422000000066850099</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>武汉市武汉开发区（汉南区）利然餐饮管理店（个体工商户）</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>3785</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2024-06-14 13:19:22</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45503.46391618055</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>24922000000012515926</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>胶州市辣五味虾鱼食府</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>3770</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2024-03-22 13:11:54</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45503.46496523148</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>23922000000010021910</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>李沧区老河边菜馆</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>3768</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-06-19 19:57:19</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45503.46536178241</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>23922000000025387903</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>李沧区老河边菜馆</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>3755</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-10-15 18:55:17</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45503.46590731481</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>24922000000028342701</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>青岛盈园餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>3712</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2024-06-06 10:18:59</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45503.46632711805</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>24132000000029369945</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>裕华区金黄酒店</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>3683</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2024-03-18 11:33:34</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45503.46676635417</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>02884153</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>青岛银灶传承餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3587</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-09-21 17:37:01</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45503.46710193287</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>23312000000176137422</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>上海静安杨同兴餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>3580</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-12-26 14:11:51</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45503.46773855324</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>24312000000168638401</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>上海市浦东新区惠南镇李得权餐饮店</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3520</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2024-06-11 10:53:59</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45503.46819694444</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>23312000000169646458</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>上海波韧餐饮管理中心</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3468</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-12-20 18:48:48</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45503.46932576389</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>51800705</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>中国金茂（集团）有限公司</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3398</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-04-15 22:01:13</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45503.46977458333</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>24322000000038204584</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>昆山张家大院餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>3350</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2024-01-31 20:47:17</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45503.47024960648</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>23922000000010262070</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>3476</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-06-21 12:51:07</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45503.47097857639</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>24922000000008612909</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>李沧区厚德人家酒店</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3306</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2024-02-28 12:15:33</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45503.4715734838</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>02806048</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>无锡国际商务中心有限公司</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3110</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2024-01-11 20:01:19</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45503.47229275463</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>80385156</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>上海松卫府餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>3080</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2024-02-01 18:59:56</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45503.47324033565</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>52217539</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>上海永泉餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3072</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:47:44</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45503.47361172453</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>24322000000042978229</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>兴化市丰富大酒店</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3060</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2024-02-04 19:57:23</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45503.4741059838</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>02754746</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>常熟市虞山镇烂锅子鹅汤馆</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>3050</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2024-02-01 18:51:22</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45503.47457486111</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>23312000000086156897</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>好骨气（上海）餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2990</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-09-24 17:00:43</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45503.47502158565</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>01572539</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>平度市綦记一品狗肉店</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2980</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-03-20 12:56:58</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45503.47538030092</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>23312000000003883728</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>上海仓爵餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2965</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-02-15 17:48:52</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45503.47621324074</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>24322000000043606820</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>靖江市缘来美食店</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2950</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2024-02-05 13:48:45</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45503.47670496528</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>23512000000091068461</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>成都段兑壮餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2930</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-09-19 12:04:20</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45503.47731304398</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>23312000000006878522</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>上海玖尔尔餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2915</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-03-09 17:30:50</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45503.47776658565</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>23312000000087664741</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>好骨气（上海）餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2870</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-09-25 21:11:57</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45503.49803365741</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>23312000000086049713</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>上海韩鼎餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2860</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-09-24 12:35:15</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45503.49852523148</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>23312000000005694156</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>上海韵灶餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2826</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-02-28 18:16:14</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45503.49897108796</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>65998655</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>上海成峰餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-09-21 09:50:04</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45503.49939329861</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>23312000000004962553</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>上海韵灶餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2776</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-02-23 20:19:28</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45503.49998762731</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>46875867</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>上海旬味餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2716</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-03-27 13:00:14</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45503.50048179398</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>23922000000017531188</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>城阳区私房薪火小厨餐厅</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2650</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-08-18 20:56:46</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45503.50096704861</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>23922000000006143379</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>青岛禧合礼宴酒店服务有限公司</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2612</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-05-17 22:47:41</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45503.50161341435</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>03000696</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>李沧区渝一味菜馆</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2580</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-03-17 22:55:48</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45503.50202239583</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>24312000000034440182</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>上海熙悦餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>2568</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2024-01-31 20:04:04</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45503.50277434028</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>49268847</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>上海伟家餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>2511</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-04-07 14:12:51</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45503.50315413195</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>00815111</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>南昌市炉忆熙梦里酒店管理有限公司</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2553</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-06-16 22:21:07</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45503.50365913194</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>23922000000028305608</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>市北区凡亚比生鲜食品经营部</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-11-02 09:00:09</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45503.5041955324</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>24422000000067633846</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>武汉市武汉开发区（汉南区）利然餐饮管理店（个体工商户）</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2518</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2024-06-16 15:02:33</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45503.50455155093</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>33261144</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>上海福张张餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2489</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-04-30 20:25:57</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45503.50492083334</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>16270741</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>上海骏莱豪廷投资发展有限公司</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2470</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-01-16 20:48:45</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45503.50540467593</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>23322000000093540099</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>新吴区花田错饭店</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>4823</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-12-09 10:17:33</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45503.50670875</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>23312000000091940197</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>上海韩鼎餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2370</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-10-02 09:47:28</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45503.50737305555</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>05000000</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>崂山风景区北九水景区将军崮酒楼</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>2350</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-06-05 16:13:15</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45503.50778083333</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>23312000000091805328</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>好骨气（上海）餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2350</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-10-01 13:03:56</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45503.50823336805</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>23312000000169756415</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>上海戈橙餐饮管理中心</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2335</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-12-20 22:28:13</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45503.50867225695</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>45711912</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>上海石粹餐饮服务有限公司</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>2333</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-03-08 19:59:29</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45503.50922365741</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>07975339</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>苏州市相城区君庭餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2288</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-12-20 20:27:21</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45503.50960349537</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>05168685</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>苏州市相城区阳澄湖镇沈周人家蒸菜馆</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-09-26 17:48:39</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45503.51001188657</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>52217538</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>上海永泉餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:43:28</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45503.51036597222</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>24312000000016639608</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>上海谷阳餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>2188</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2024-01-16 18:00:51</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45503.51080314815</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>23922000000028305661</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>市北区凡亚比生鲜食品经营部</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>2108</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-11-02 09:00:38</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45503.5119955324</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>05168683</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>苏州市相城区阳澄湖镇沈周人家蒸菜馆</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-09-26 17:46:17</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45503.51246228009</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>24322000000011925734</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>相城区望亭镇百福院饭店</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>2090</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2024-01-12 10:35:28</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45503.51355708333</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>24322000000011556078</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>新吴区渔谣纸上烤鱼店</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>2050</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2024-01-11 19:47:20</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45503.51397054398</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>24312000000041340954</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>上海皇轶庭餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2035</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2024-02-08 20:07:43</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45503.51534174768</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>00260088</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>新建区上座餐饮店</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-03-24 19:37:53</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45503.51638208333</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>38904064</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>青岛李沧蓝海大饭店有限责任公司</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-04-03 20:15:52</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45503.51671047453</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>31681764</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>太仓市高新区鼓韵辉州餐饮店</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-06-19 16:29:39</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45503.51726862269</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>03338110</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>青岛市李沧区大康三千里烧烤大崂路店</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-09-01 00:29:05</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45503.51765949074</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>23922000000002783925</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>青岛禧合礼宴酒店服务有限公司</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-04-14 13:42:45</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45503.51827700232</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>65998850</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>上海成峰餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-10-06 12:51:14</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45503.51866844908</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>31530102</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>上海市宝山区正风饭店</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1971</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-04-08 20:57:14</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45503.51902085648</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>24312000000035421408</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>上海新泓叶餐饮发展有限公司</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1962</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2024-02-01 15:28:58</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45503.5194484838</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>23312000000101456649</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>上海曜辛餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1958</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-10-16 14:15:49</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45503.51990709491</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>42438449</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>北京淮扬府餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1953</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-04-24 18:06:00</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45503.52023623842</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>23312000000092409484</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>上海盛嘉餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-10-04 19:39:42</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45503.5206684838</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>66563726</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>滕州市杏花村张强餐馆</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1939</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-06-06 11:41:20</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45503.52106224537</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>02884023</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>青岛银灶传承餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-08-10 20:38:59</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45503.52138384259</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>80714601</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>河北多元康济美酒店管理有限公司</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>900</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-03-18 21:04:21</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45503.52182444445</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>80714600</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>河北多元康济美酒店管理有限公司</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-03-18 21:03:57</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45503.52239077546</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>80714602</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>河北多元康济美酒店管理有限公司</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>900</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-03-18 21:04:49</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45503.5224790625</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>23312000000091803618</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>上海中呷餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-10-01 12:56:00</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45503.53035694444</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>26809390</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>宁国市一碗饭饭店</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1846.28</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-12-09 21:02:27</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45503.53069881944</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>23312000000102478554</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>上海永泉餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-10-17 13:17:19</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45503.53173927083</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>29095801</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>上海芯莱餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1830</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-04-18 17:15:44</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45503.53207193287</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>24322000000184112868</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>新吴区晴秋小茶餐厅</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2024-05-30 18:25:56</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45503.53266534722</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>65998726</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>上海成峰餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-09-26 13:00:35</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45503.53296163194</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>24312000000008530493</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>好骨气（上海）餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2024-01-09 14:15:23</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45503.53339280093</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>35677565</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>泰州市海陵区玉瑾美食园</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1768</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-08-04 19:38:55</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45503.53383637731</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>01923564</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>南昌经济技术开发区鲟阳渔村餐饮店</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-04-11 20:46:54</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45503.53424179398</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>17145325</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>上海志兰餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1758</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-03-14 21:51:41</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45503.53459943287</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>39876359</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>上海和味餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1724</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-04-06 10:06:12</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45503.53495108796</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>07611435</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>南京白金汉爵大酒店有限公司</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1708</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-08-02 14:03:29</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45503.53541924769</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>03890154</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>上海豫园南翔馒头店有限公司</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1701</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-04-29 14:51:06</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45503.53576458334</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>31681765</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>太仓市高新区鼓韵辉州餐饮店</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-06-19 16:33:39</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45503.53663625</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>24312000000105807690</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>上海麦凯伦餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2024-04-16 21:23:11</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45503.5370259375</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>02884141</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>青岛银灶传承餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-09-20 17:36:16</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45503.53738224537</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>23922000000016817634</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>青岛马家寨餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1642</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-08-13 18:54:14</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45503.53782175926</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>54671979</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>苏州文博诺富特酒店管理有限公司</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1588</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-08-31 13:37:38</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45503.53849523148</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>23312000000089183752</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>上海盛嘉餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-09-27 09:43:14</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45503.53898675926</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>23922000000028134263</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>市北区凡亚比生鲜食品经营部</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1565</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-11-01 07:38:15</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45503.53951868055</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>23312000000176751797</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>好骨气（上海）餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1536</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023-12-26 17:25:39</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45503.53998635417</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>23322000000037180695</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>新吴区晴秋小茶餐厅</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1527</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:37:20</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45503.54034604166</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>23322000000022674885</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>新吴区晴秋小茶餐厅</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1524</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-09-19 17:52:53</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45503.54079079861</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>67674387</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>南昌临空经济区柚园农家乐</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1521</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-04-08 18:26:40</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45503.54115363426</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>03981881</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>青岛李沧蓝海大饭店有限责任公司</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1518</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-08-17 17:40:42</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45503.54151125</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>24312000000079815388</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>上海炙苑餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1512.5</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2024-03-24 17:59:15</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45503.54199384259</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>40377333</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>合肥壹道鲜餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-09-21 18:24:15</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45503.54242153935</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>10478585</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>滕州市杏花村张强餐馆</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1502.25</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023-05-05 11:32:35</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45503.54292481481</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>65907820</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>相城区阳澄湖镇江畔渔民农家乐饭店</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023-10-08 16:41:15</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45503.54345616898</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>03821868</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>无锡市州铺小吃店</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1485</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023-03-24 20:29:56</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45503.54391145834</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>24312000000005042446</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>上海五泾朴餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2024-01-05 14:49:22</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45503.54446839121</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>23922000000004901726</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>李沧区老河边菜馆</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1476</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:44:47</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45503.54488509259</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>24312000000022674215</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>上海五泾朴餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2024-01-22 15:49:52</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45503.54537050926</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>02078221</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>吴中经济开发区越溪海味世家酒店</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1465</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023-07-05 21:59:45</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45503.54583597223</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>24312000000034440445</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>上海熙悦餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1465</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2024-01-31 20:03:57</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45503.54629167824</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>23312000000029009367</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>上海戈橙餐饮管理中心</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1460</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023-06-19 21:04:08</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45503.54667222222</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>24312000000149715958</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>上海松航顺风餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1439</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2024-05-25 21:34:43</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45503.54712202546</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>51921756</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>上海食越餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1425</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023-05-11 12:51:46</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45503.54751820602</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>23922000000008408006</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>李沧区老河边菜馆</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1377</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023-06-05 22:10:24</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45503.54796543982</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>23922000000031339809</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>李沧区厚德人家酒店</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1365</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023-11-22 18:09:05</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45503.54841614583</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>23312000000092452379</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>上海中呷餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023-10-05 09:11:49</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45503.54887488426</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>23312000000179583252</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>上海成峰餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1348</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023-12-28 15:50:26</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45503.54999608796</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>23922000000006139093</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>李沧区老河边菜馆</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1269</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023-05-17 18:11:02</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45503.55051259259</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>03682760</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>宁波小椿日禾餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1301</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023-09-07 19:23:10</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45503.55269315972</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>24342000000032187833</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>宁国市一碗饭饭店</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1293</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2024-04-09 20:42:21</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45503.55320229167</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>27038194</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>上海晨璐餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023-04-09 20:39:30</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45503.55400969907</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>17145441</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>上海志兰餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023-03-31 21:55:55</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45503.55447248842</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>36858480</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>上海佳邻廊亦舫餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023-08-14 12:27:42</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45503.55487241898</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>03681722</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>李沧区海润小灶家常菜馆</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1230</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023-08-30 20:49:22</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45503.55521733796</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>23922000000017515111</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1227</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023-08-18 17:25:58</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45503.55600001157</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>24312000000068984112</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>上海德合鲜餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1227</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2024-03-14 10:34:40</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45503.55692542824</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>70817684</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>中国全聚德（集团）股份有限公司北京全聚德王府井店</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1212</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2024-04-22 10:57:20</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45503.55770796297</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>24312000000071925087</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>上海新泓叶餐饮发展有限公司</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1199</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2024-03-17 15:23:27</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45503.55824787037</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>49268885</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>上海伟家餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023-04-08 13:37:44</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45503.58990869213</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>24132000000029520039</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>裕华区金黄酒店</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>1182</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2024-03-18 11:35:05</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45503.59106803241</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>23312000000029006957</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>上海征雅餐饮管理中心</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>1178</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023-06-19 20:48:38</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45503.5918053588</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>23312000000178538741</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>上海羡肴餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>1173</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023-12-27 21:00:38</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45503.59233436343</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>23922000000022979234</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>市北区天赐食府酒店</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>841</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023-09-26 20:32:01</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45503.59290123843</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>12412178</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>无锡香山置业发展有限公司</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1170.44</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023-06-01 10:19:08</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45503.59323288195</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>60398103</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>临沂经济技术开发区徐振芬餐饮服务部</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>999</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023-06-30 09:22:07</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45503.59378459491</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>23312000000101274087</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>上海佳邻廊亦舫餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1117</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023-10-16 12:42:12</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45503.59608748843</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>62896629</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>上海左庭右院企业管理有限公司</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>999</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023-04-08 16:33:05</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45503.59673765046</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>24312000000174597926</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>上海潮兴餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>967.8</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024-06-14 22:44:39</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45503.59807962963</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>24922000000008765030</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>青岛锦顺餐饮有限公司</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>835</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2024-02-28 22:18:22</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45503.59871171296</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>03060582</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>李沧区六七八九餐饮店</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>835</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023-06-06 21:39:15</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45503.59948954861</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>23512000000089745735</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>成都市青羊区周记蜀大侠火锅有限公司</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>817.6</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023-09-16 11:09:07</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45503.60003158565</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>00820162</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>李沧区六七八九餐饮店</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>746</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2024-04-10 19:39:21</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45503.60116243055</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>24317000000185661790</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>元气寿司餐饮服务管理（深圳）有限公司上海东育路分店</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>760.2</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024-04-13 14:05:43</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45503.6019725</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>54822046</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>上海东酎餐饮管理有限公司</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>688</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023-05-09 20:34:35</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45503.60306171297</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>23922000000016447502</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>李沧区老河边菜馆</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>688</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023-08-09 23:16:15</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45503.60372332176</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>23922000000010097812</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>3476</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023-06-20 12:45:03</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45503.62112692129</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>23922000000010261169</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>平度市世德莒县大锅全羊餐馆</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>3833</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023-06-21 12:20:45</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45503.62313899781</v>
       </c>
     </row>
   </sheetData>

--- a/查重台账.xlsx
+++ b/查重台账.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -363,7 +363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -393,6 +395,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>